--- a/가계도샘플.xlsx
+++ b/가계도샘플.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1731a6af20375572/Sumgo/(제안서작성)_김건배_가계도시각화/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1731a6af20375572/E^0B_STUDIO/FamilyTree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{5A8E890D-6599-43E3-9FC6-C14834D0E424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F11F401A-5499-4467-BE2F-8086ECCC1CE6}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{5A8E890D-6599-43E3-9FC6-C14834D0E424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB72458E-5F71-4F34-94C0-F0C759CE14A2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2F259C8C-EF31-4814-8CFC-98BEC894FA59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F259C8C-EF31-4814-8CFC-98BEC894FA59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>배우자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이춘봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강윤희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이소정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32429C7A-8D77-4FA6-A4F4-688493A68397}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,6 +673,39 @@
         <v>1991</v>
       </c>
       <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>1989</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>1960</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1961</v>
+      </c>
+      <c r="C16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -672,7 +717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED98E317-5E38-4319-8EEB-791C2E14A5C3}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -809,6 +854,38 @@
         <v>20</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -817,10 +894,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82ADC434-4E7B-4E6F-81C9-C8DADD2EDA39}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -881,6 +958,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/가계도샘플.xlsx
+++ b/가계도샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1731a6af20375572/E^0B_STUDIO/FamilyTree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{5A8E890D-6599-43E3-9FC6-C14834D0E424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB72458E-5F71-4F34-94C0-F0C759CE14A2}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{5A8E890D-6599-43E3-9FC6-C14834D0E424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC542C8F-4086-468A-B8D0-37BB0FEE3C29}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F259C8C-EF31-4814-8CFC-98BEC894FA59}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>이소정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이채봉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,9 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32429C7A-8D77-4FA6-A4F4-688493A68397}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -548,9 +550,6 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>1989</v>
-      </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -559,9 +558,6 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>1991</v>
-      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -570,9 +566,6 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>1961</v>
-      </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -581,9 +574,6 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>1962</v>
-      </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -592,9 +582,6 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>1920</v>
-      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -603,9 +590,6 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>1921</v>
-      </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -614,9 +598,6 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>1979</v>
-      </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -625,9 +606,6 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>2002</v>
-      </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -636,9 +614,6 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
-        <v>2001</v>
-      </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -647,9 +622,6 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>1981</v>
-      </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -658,9 +630,6 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>1980</v>
-      </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -669,9 +638,6 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
-        <v>1991</v>
-      </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -680,19 +646,13 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
-        <v>1989</v>
-      </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>1960</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -701,9 +661,6 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>1961</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -721,7 +678,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -856,7 +813,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -872,7 +829,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -897,7 +854,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -960,7 +917,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
